--- a/biology/Botanique/Malus_sylvestris/Malus_sylvestris.xlsx
+++ b/biology/Botanique/Malus_sylvestris/Malus_sylvestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boquettier, Pommier sauvage, Pommier des bois
 Malus sylvestris, le Boquettier, le Pommier sauvage ou Pommier des bois, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbre spontané dans toute l'Europe et parfois cultivé.
-Autrefois, on pensait qu'il s'agissait de l'ancêtre du pommier domestique (Malus  domestica), mais on sait maintenant que le génome de celui-ci vient principalement d’une espèce d’Asie centrale, Malus sieversii[2] sauf pour quelques cultivars issus d'hybridations entre ces deux espèces comme la Granny Smith.
+Autrefois, on pensait qu'il s'agissait de l'ancêtre du pommier domestique (Malus  domestica), mais on sait maintenant que le génome de celui-ci vient principalement d’une espèce d’Asie centrale, Malus sieversii sauf pour quelques cultivars issus d'hybridations entre ces deux espèces comme la Granny Smith.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Pommier sauvage est un arbre de 5 à 10 m de hauteur[3], à couronne dense. Sa croissance est moyenne voire lente surtout après l'âge de 20 ans[2]. Son architecture correspond au modèle architectural de Massart[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pommier sauvage est un arbre de 5 à 10 m de hauteur, à couronne dense. Sa croissance est moyenne voire lente surtout après l'âge de 20 ans. Son architecture correspond au modèle architectural de Massart.
 Ses rameaux sont légèrement épineux ; ses feuilles tomenteuses (à poils courts et denses) à l'état jeune, devenant glabres.
 Il fleurit vers le mois de mai ; les fleurs sont blanches ou rosées. Les pommes sont généralement petites (3 à 4 cm de diamètre) à saveur très âpre, sauf pour certaines variétés plus douces, qui peuvent être consommées sous forme de gelées ou de compotes.
 </t>
@@ -546,9 +560,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (30 octobre 2022)[4] (liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (30 octobre 2022) (liste brute contenant possiblement des synonymes) :
 sous-espèce Malus sylvestris subsp. mitis Mansf.
 sous-espèce Malus sylvestris subsp. orientalis Browicz
 sous-espèce Malus sylvestris subsp. praecox Soó
@@ -580,10 +596,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce mésophile acidocline à neutrocline et héliophile[2] qu'on trouve sous forme disséminée dans les bois et forêts en plaine et en montagne jusqu'à 1 500 m d'altitude.
-Les branches accueillent rarement le gui[2]. Les pommes sont consommées par le sanglier[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce mésophile acidocline à neutrocline et héliophile qu'on trouve sous forme disséminée dans les bois et forêts en plaine et en montagne jusqu'à 1 500 m d'altitude.
+Les branches accueillent rarement le gui. Les pommes sont consommées par le sanglier.
 </t>
         </is>
       </c>
@@ -612,10 +630,12 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est encore méconnue.
-Sciences participatives : un appel à échantillonnage du pommier sauvage en France a été lancé en février (2012) dans le cadre d’un programme de recherche "Structure et diversité génétique de populations de pommiers sauvages en France (Malus sylvestris) : quel statut conservatoire en France ?", accompagné par Tela-botanica. Fin 2012 à la clôture de ce projet, il avait permis d'échantillonner 954 pommiers sauvages dans plusieurs régions de France qui ont été analysés en biologie moléculaire en 2013[5].
+Sciences participatives : un appel à échantillonnage du pommier sauvage en France a été lancé en février (2012) dans le cadre d’un programme de recherche "Structure et diversité génétique de populations de pommiers sauvages en France (Malus sylvestris) : quel statut conservatoire en France ?", accompagné par Tela-botanica. Fin 2012 à la clôture de ce projet, il avait permis d'échantillonner 954 pommiers sauvages dans plusieurs régions de France qui ont été analysés en biologie moléculaire en 2013.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Ethnobotanique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est parfois utilisé comme porte-greffe pour la culture de variétés de pommier domestique.
 Les pommes sauvages peuvent être utilisées en gelées, très riches en pectine.
